--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.85906889985593</v>
+        <v>8.948174</v>
       </c>
       <c r="H2">
-        <v>2.85906889985593</v>
+        <v>26.844522</v>
       </c>
       <c r="I2">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J2">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>154.70646553765</v>
+        <v>158.44488</v>
       </c>
       <c r="N2">
-        <v>154.70646553765</v>
+        <v>475.33464</v>
       </c>
       <c r="O2">
-        <v>0.9909634573532856</v>
+        <v>0.9887284682052465</v>
       </c>
       <c r="P2">
-        <v>0.9909634573532856</v>
+        <v>0.9887284682052465</v>
       </c>
       <c r="Q2">
-        <v>442.3164442253283</v>
+        <v>1417.79235564912</v>
       </c>
       <c r="R2">
-        <v>442.3164442253283</v>
+        <v>12760.13120084208</v>
       </c>
       <c r="S2">
-        <v>0.02422977812983475</v>
+        <v>0.06880875215180322</v>
       </c>
       <c r="T2">
-        <v>0.02422977812983475</v>
+        <v>0.06880875215180322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.85906889985593</v>
+        <v>8.948174</v>
       </c>
       <c r="H3">
-        <v>2.85906889985593</v>
+        <v>26.844522</v>
       </c>
       <c r="I3">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J3">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.735974953677301</v>
+        <v>0.7859896666666666</v>
       </c>
       <c r="N3">
-        <v>0.735974953677301</v>
+        <v>2.357969</v>
       </c>
       <c r="O3">
-        <v>0.004714245665731347</v>
+        <v>0.004904736329431949</v>
       </c>
       <c r="P3">
-        <v>0.004714245665731347</v>
+        <v>0.004904736329431949</v>
       </c>
       <c r="Q3">
-        <v>2.10420310113168</v>
+        <v>7.033172299535332</v>
       </c>
       <c r="R3">
-        <v>2.10420310113168</v>
+        <v>63.29855069581799</v>
       </c>
       <c r="S3">
-        <v>0.0001152667393359628</v>
+        <v>0.0003413361679313658</v>
       </c>
       <c r="T3">
-        <v>0.0001152667393359628</v>
+        <v>0.0003413361679313658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.85906889985593</v>
+        <v>8.948174</v>
       </c>
       <c r="H4">
-        <v>2.85906889985593</v>
+        <v>26.844522</v>
       </c>
       <c r="I4">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J4">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6747850124745161</v>
+        <v>0.01118333333333334</v>
       </c>
       <c r="N4">
-        <v>0.6747850124745161</v>
+        <v>0.03355</v>
       </c>
       <c r="O4">
-        <v>0.004322296980982944</v>
+        <v>6.978628805232043E-05</v>
       </c>
       <c r="P4">
-        <v>0.004322296980982944</v>
+        <v>6.978628805232041E-05</v>
       </c>
       <c r="Q4">
-        <v>1.929256843254785</v>
+        <v>0.1000704125666667</v>
       </c>
       <c r="R4">
-        <v>1.929256843254785</v>
+        <v>0.9006337131000001</v>
       </c>
       <c r="S4">
-        <v>0.0001056833085855505</v>
+        <v>4.856649274904516E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001056833085855505</v>
+        <v>4.856649274904515E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.284893408821</v>
+        <v>8.948174</v>
       </c>
       <c r="H5">
-        <v>104.284893408821</v>
+        <v>26.844522</v>
       </c>
       <c r="I5">
-        <v>0.8918433486908471</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J5">
-        <v>0.8918433486908471</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.70646553765</v>
+        <v>1.009103</v>
       </c>
       <c r="N5">
-        <v>154.70646553765</v>
+        <v>3.027309</v>
       </c>
       <c r="O5">
-        <v>0.9909634573532856</v>
+        <v>0.006297009177269212</v>
       </c>
       <c r="P5">
-        <v>0.9909634573532856</v>
+        <v>0.006297009177269212</v>
       </c>
       <c r="Q5">
-        <v>16133.54726824927</v>
+        <v>9.029629227922001</v>
       </c>
       <c r="R5">
-        <v>16133.54726824927</v>
+        <v>81.266663051298</v>
       </c>
       <c r="S5">
-        <v>0.8837841682362138</v>
+        <v>0.0004382288542402955</v>
       </c>
       <c r="T5">
-        <v>0.8837841682362138</v>
+        <v>0.0004382288542402954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>104.284893408821</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H6">
-        <v>104.284893408821</v>
+        <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8918433486908471</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="J6">
-        <v>0.8918433486908471</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.735974953677301</v>
+        <v>158.44488</v>
       </c>
       <c r="N6">
-        <v>0.735974953677301</v>
+        <v>475.33464</v>
       </c>
       <c r="O6">
-        <v>0.004714245665731347</v>
+        <v>0.9887284682052465</v>
       </c>
       <c r="P6">
-        <v>0.004714245665731347</v>
+        <v>0.9887284682052465</v>
       </c>
       <c r="Q6">
-        <v>76.75106959579932</v>
+        <v>16776.16486193912</v>
       </c>
       <c r="R6">
-        <v>76.75106959579932</v>
+        <v>150985.4837574521</v>
       </c>
       <c r="S6">
-        <v>0.004204368641077157</v>
+        <v>0.8141861997234812</v>
       </c>
       <c r="T6">
-        <v>0.004204368641077157</v>
+        <v>0.8141861997234812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>104.284893408821</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H7">
-        <v>104.284893408821</v>
+        <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8918433486908471</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="J7">
-        <v>0.8918433486908471</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6747850124745161</v>
+        <v>0.7859896666666666</v>
       </c>
       <c r="N7">
-        <v>0.6747850124745161</v>
+        <v>2.357969</v>
       </c>
       <c r="O7">
-        <v>0.004322296980982944</v>
+        <v>0.004904736329431949</v>
       </c>
       <c r="P7">
-        <v>0.004322296980982944</v>
+        <v>0.004904736329431949</v>
       </c>
       <c r="Q7">
-        <v>70.36988309977485</v>
+        <v>83.22068991929922</v>
       </c>
       <c r="R7">
-        <v>70.36988309977485</v>
+        <v>748.9862092736929</v>
       </c>
       <c r="S7">
-        <v>0.003854811813556167</v>
+        <v>0.004038893145207716</v>
       </c>
       <c r="T7">
-        <v>0.003854811813556167</v>
+        <v>0.004038893145207715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.78788851681016</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H8">
-        <v>9.78788851681016</v>
+        <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.08370592313139663</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="J8">
-        <v>0.08370592313139663</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>154.70646553765</v>
+        <v>0.01118333333333334</v>
       </c>
       <c r="N8">
-        <v>154.70646553765</v>
+        <v>0.03355</v>
       </c>
       <c r="O8">
-        <v>0.9909634573532856</v>
+        <v>6.978628805232043E-05</v>
       </c>
       <c r="P8">
-        <v>0.9909634573532856</v>
+        <v>6.978628805232041E-05</v>
       </c>
       <c r="Q8">
-        <v>1514.249637512251</v>
+        <v>1.184092813261111</v>
       </c>
       <c r="R8">
-        <v>1514.249637512251</v>
+        <v>10.65683531935</v>
       </c>
       <c r="S8">
-        <v>0.08294951098723717</v>
+        <v>5.746677120085925E-05</v>
       </c>
       <c r="T8">
-        <v>0.08294951098723717</v>
+        <v>5.746677120085924E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.78788851681016</v>
+        <v>105.8801323333333</v>
       </c>
       <c r="H9">
-        <v>9.78788851681016</v>
+        <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.08370592313139663</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="J9">
-        <v>0.08370592313139663</v>
+        <v>0.8234679448457706</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.735974953677301</v>
+        <v>1.009103</v>
       </c>
       <c r="N9">
-        <v>0.735974953677301</v>
+        <v>3.027309</v>
       </c>
       <c r="O9">
-        <v>0.004714245665731347</v>
+        <v>0.006297009177269212</v>
       </c>
       <c r="P9">
-        <v>0.004714245665731347</v>
+        <v>0.006297009177269212</v>
       </c>
       <c r="Q9">
-        <v>7.203640797757944</v>
+        <v>106.8439591779637</v>
       </c>
       <c r="R9">
-        <v>7.203640797757944</v>
+        <v>961.5956326016731</v>
       </c>
       <c r="S9">
-        <v>0.0003946102853182279</v>
+        <v>0.005185385205880835</v>
       </c>
       <c r="T9">
-        <v>0.0003946102853182279</v>
+        <v>0.005185385205880834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.344609</v>
+      </c>
+      <c r="I10">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J10">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>158.44488</v>
+      </c>
+      <c r="N10">
+        <v>475.33464</v>
+      </c>
+      <c r="O10">
+        <v>0.9887284682052465</v>
+      </c>
+      <c r="P10">
+        <v>0.9887284682052465</v>
+      </c>
+      <c r="Q10">
+        <v>18.20051055064</v>
+      </c>
+      <c r="R10">
+        <v>163.80459495576</v>
+      </c>
+      <c r="S10">
+        <v>0.0008833130003313435</v>
+      </c>
+      <c r="T10">
+        <v>0.0008833130003313435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.344609</v>
+      </c>
+      <c r="I11">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J11">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7859896666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.357969</v>
+      </c>
+      <c r="O11">
+        <v>0.004904736329431949</v>
+      </c>
+      <c r="P11">
+        <v>0.004904736329431949</v>
+      </c>
+      <c r="Q11">
+        <v>0.09028637101344443</v>
+      </c>
+      <c r="R11">
+        <v>0.8125773391209999</v>
+      </c>
+      <c r="S11">
+        <v>4.381807040358553E-06</v>
+      </c>
+      <c r="T11">
+        <v>4.381807040358552E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.344609</v>
+      </c>
+      <c r="I12">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J12">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.01118333333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.03355</v>
+      </c>
+      <c r="O12">
+        <v>6.978628805232043E-05</v>
+      </c>
+      <c r="P12">
+        <v>6.978628805232041E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.001284625772222222</v>
+      </c>
+      <c r="R12">
+        <v>0.01156163195</v>
+      </c>
+      <c r="S12">
+        <v>6.234586892534613E-08</v>
+      </c>
+      <c r="T12">
+        <v>6.234586892534611E-08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.344609</v>
+      </c>
+      <c r="I13">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J13">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.009103</v>
+      </c>
+      <c r="N13">
+        <v>3.027309</v>
+      </c>
+      <c r="O13">
+        <v>0.006297009177269212</v>
+      </c>
+      <c r="P13">
+        <v>0.006297009177269212</v>
+      </c>
+      <c r="Q13">
+        <v>0.1159153252423333</v>
+      </c>
+      <c r="R13">
+        <v>1.043237927181</v>
+      </c>
+      <c r="S13">
+        <v>5.625639645619094E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.625639645619094E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.635153</v>
+      </c>
+      <c r="H14">
+        <v>40.905459</v>
+      </c>
+      <c r="I14">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J14">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>158.44488</v>
+      </c>
+      <c r="N14">
+        <v>475.33464</v>
+      </c>
+      <c r="O14">
+        <v>0.9887284682052465</v>
+      </c>
+      <c r="P14">
+        <v>0.9887284682052465</v>
+      </c>
+      <c r="Q14">
+        <v>2160.42018086664</v>
+      </c>
+      <c r="R14">
+        <v>19443.78162779976</v>
+      </c>
+      <c r="S14">
+        <v>0.1048502033296309</v>
+      </c>
+      <c r="T14">
+        <v>0.1048502033296309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.635153</v>
+      </c>
+      <c r="H15">
+        <v>40.905459</v>
+      </c>
+      <c r="I15">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J15">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7859896666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.357969</v>
+      </c>
+      <c r="O15">
+        <v>0.004904736329431949</v>
+      </c>
+      <c r="P15">
+        <v>0.004904736329431949</v>
+      </c>
+      <c r="Q15">
+        <v>10.717089361419</v>
+      </c>
+      <c r="R15">
+        <v>96.45380425277099</v>
+      </c>
+      <c r="S15">
+        <v>0.0005201252092525097</v>
+      </c>
+      <c r="T15">
+        <v>0.0005201252092525096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>9.78788851681016</v>
-      </c>
-      <c r="H10">
-        <v>9.78788851681016</v>
-      </c>
-      <c r="I10">
-        <v>0.08370592313139663</v>
-      </c>
-      <c r="J10">
-        <v>0.08370592313139663</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6747850124745161</v>
-      </c>
-      <c r="N10">
-        <v>0.6747850124745161</v>
-      </c>
-      <c r="O10">
-        <v>0.004322296980982944</v>
-      </c>
-      <c r="P10">
-        <v>0.004322296980982944</v>
-      </c>
-      <c r="Q10">
-        <v>6.604720474914916</v>
-      </c>
-      <c r="R10">
-        <v>6.604720474914916</v>
-      </c>
-      <c r="S10">
-        <v>0.000361801858841226</v>
-      </c>
-      <c r="T10">
-        <v>0.000361801858841226</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.635153</v>
+      </c>
+      <c r="H16">
+        <v>40.905459</v>
+      </c>
+      <c r="I16">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J16">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01118333333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.03355</v>
+      </c>
+      <c r="O16">
+        <v>6.978628805232043E-05</v>
+      </c>
+      <c r="P16">
+        <v>6.978628805232041E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.15248646105</v>
+      </c>
+      <c r="R16">
+        <v>1.37237814945</v>
+      </c>
+      <c r="S16">
+        <v>7.400521707631315E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.400521707631314E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.635153</v>
+      </c>
+      <c r="H17">
+        <v>40.905459</v>
+      </c>
+      <c r="I17">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J17">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.009103</v>
+      </c>
+      <c r="N17">
+        <v>3.027309</v>
+      </c>
+      <c r="O17">
+        <v>0.006297009177269212</v>
+      </c>
+      <c r="P17">
+        <v>0.006297009177269212</v>
+      </c>
+      <c r="Q17">
+        <v>13.759273797759</v>
+      </c>
+      <c r="R17">
+        <v>123.833464179831</v>
+      </c>
+      <c r="S17">
+        <v>0.0006677694775024635</v>
+      </c>
+      <c r="T17">
+        <v>0.0006677694775024633</v>
       </c>
     </row>
   </sheetData>
